--- a/02_NodeJs/04_Web_Scrapping/02_Scrapping_IPL/ipl/Sunrisers Hyderabad/Batting/Kane Williamson.xlsx
+++ b/02_NodeJs/04_Web_Scrapping/02_Scrapping_IPL/ipl/Sunrisers Hyderabad/Batting/Kane Williamson.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Kane Williamson" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -397,90 +397,178 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>matchNo</v>
+      </c>
+      <c r="B1" t="str">
         <v>teamName</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>batterName</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>states</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>runs</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>balls</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>fours</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>sixes</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>sr</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>opponentTeamName</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>venue</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>date</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>result</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>23rd</v>
+      </c>
+      <c r="B2" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
-      <c r="B2" t="str">
+      <c r="C2" t="str">
         <v>Kane Williamson</v>
       </c>
-      <c r="C2" t="str">
+      <c r="D2" t="str">
         <v/>
       </c>
-      <c r="D2" t="str">
+      <c r="E2" t="str">
         <v>26</v>
       </c>
-      <c r="E2" t="str">
+      <c r="F2" t="str">
         <v>10</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>4</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <v>1</v>
       </c>
-      <c r="H2" t="str">
+      <c r="I2" t="str">
         <v>260.00</v>
       </c>
-      <c r="I2" t="str">
+      <c r="J2" t="str">
         <v>Chennai Super Kings</v>
       </c>
-      <c r="J2" t="str">
+      <c r="K2" t="str">
         <v>Delhi</v>
       </c>
-      <c r="K2" t="str">
+      <c r="L2" t="str">
         <v>April 28</v>
       </c>
-      <c r="L2" t="str">
+      <c r="M2" t="str">
         <v>Super Kings won by 7 wickets (with 9 balls remaining)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>20th</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Kane Williamson</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>66</v>
+      </c>
+      <c r="F3" t="str">
+        <v>51</v>
+      </c>
+      <c r="G3" t="str">
+        <v>8</v>
+      </c>
+      <c r="H3" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" t="str">
+        <v>129.41</v>
+      </c>
+      <c r="J3" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="K3" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="L3" t="str">
+        <v>April 25</v>
+      </c>
+      <c r="M3" t="str">
+        <v>Match tied (Capitals won the one-over eliminator)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>14th</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Kane Williamson</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>16</v>
+      </c>
+      <c r="F4" t="str">
+        <v>19</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <v>84.21</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Chennai</v>
+      </c>
+      <c r="L4" t="str">
+        <v>April 21</v>
+      </c>
+      <c r="M4" t="str">
+        <v>Sunrisers won by 9 wickets (with 8 balls remaining)</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M4"/>
   </ignoredErrors>
 </worksheet>
 </file>